--- a/data_year/zb/综合/民族自治地方/民族自治地方国内生产总值.xlsx
+++ b/data_year/zb/综合/民族自治地方/民族自治地方国内生产总值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,220 +463,88 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4451.35184953947</v>
+        <v>22060</v>
       </c>
       <c r="C2" t="n">
-        <v>7486.149274</v>
+        <v>38989</v>
       </c>
       <c r="D2" t="n">
-        <v>2022.303146</v>
+        <v>6198</v>
       </c>
       <c r="E2" t="n">
-        <v>2629.414182</v>
+        <v>13982</v>
       </c>
       <c r="F2" t="n">
-        <v>2834.431946</v>
+        <v>18809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8991.351150910259</v>
+        <v>27400.8393113692</v>
       </c>
       <c r="C3" t="n">
-        <v>15705.9325939271</v>
+        <v>47915.6673</v>
       </c>
       <c r="D3" t="n">
-        <v>3300.19977</v>
+        <v>7242.7401</v>
       </c>
       <c r="E3" t="n">
-        <v>5986.70792392711</v>
+        <v>16787.7885</v>
       </c>
       <c r="F3" t="n">
-        <v>6419.0249</v>
+        <v>23885.1387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10759</v>
+        <v>30871.1489705507</v>
       </c>
       <c r="C4" t="n">
-        <v>18659.12</v>
+        <v>54078.6183</v>
       </c>
       <c r="D4" t="n">
-        <v>3622.87</v>
+        <v>8145.7006</v>
       </c>
       <c r="E4" t="n">
-        <v>6946.71</v>
+        <v>19382.773</v>
       </c>
       <c r="F4" t="n">
-        <v>8089.54</v>
+        <v>26550.1447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13092.1786241166</v>
+        <v>33002.6188295645</v>
       </c>
       <c r="C5" t="n">
-        <v>22852.7849</v>
+        <v>59322.4637</v>
       </c>
       <c r="D5" t="n">
-        <v>4311.5358</v>
+        <v>9036.995419999999</v>
       </c>
       <c r="E5" t="n">
-        <v>8275.8809</v>
+        <v>21707.52188</v>
       </c>
       <c r="F5" t="n">
-        <v>10265.3682</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>15888.9650722128</v>
-      </c>
-      <c r="C6" t="n">
-        <v>27940.2019</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5002.0115</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9736.0283</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13202.1621</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>15888.9650722128</v>
-      </c>
-      <c r="C7" t="n">
-        <v>27940.2019</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5002.0115</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9736.0283</v>
-      </c>
-      <c r="F7" t="n">
-        <v>13202.1621</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22060</v>
-      </c>
-      <c r="C8" t="n">
-        <v>38989</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6198</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13982</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18809</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>27400.8393113692</v>
-      </c>
-      <c r="C9" t="n">
-        <v>47915.6673</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7242.7401</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16787.7885</v>
-      </c>
-      <c r="F9" t="n">
-        <v>23885.1387</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>30871.1489705507</v>
-      </c>
-      <c r="C10" t="n">
-        <v>54078.6183</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8145.7006</v>
-      </c>
-      <c r="E10" t="n">
-        <v>19382.773</v>
-      </c>
-      <c r="F10" t="n">
-        <v>26550.1447</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>33002.6188295645</v>
-      </c>
-      <c r="C11" t="n">
-        <v>59322.4637</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9036.995419999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>21707.52188</v>
-      </c>
-      <c r="F11" t="n">
         <v>28566.5407</v>
       </c>
     </row>
